--- a/figurenuebersicht.xlsx
+++ b/figurenuebersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SelfmadeNerdstuff - Webseite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5484E7-C7E5-4F0F-84DF-E08F350BBF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5307A28D-9733-488C-839C-73A559BA8EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{8009C365-A67D-4008-A0C7-E18D3313672E}"/>
+    <workbookView xWindow="18690" yWindow="1620" windowWidth="18270" windowHeight="16830" xr2:uid="{8009C365-A67D-4008-A0C7-E18D3313672E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="247">
   <si>
     <t>Datei-Basisname (Ordner)</t>
   </si>
@@ -745,6 +745,27 @@
   </si>
   <si>
     <t>Drachenei</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>This is fine</t>
+  </si>
+  <si>
+    <t>turt</t>
+  </si>
+  <si>
+    <t>Turtok</t>
+  </si>
+  <si>
+    <t>28 Std.</t>
+  </si>
+  <si>
+    <t>horse1</t>
+  </si>
+  <si>
+    <t>Pferdeherde - Gestrickt</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CABE36D-4820-441E-821E-88CAC3EFB892}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:F96"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,33 +3283,69 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+    <row r="97" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="A98" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
